--- a/documentacion/Libro1.xlsx
+++ b/documentacion/Libro1.xlsx
@@ -229,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -244,7 +244,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,7 +548,7 @@
   <dimension ref="A3:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,7 +668,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
+      <c r="B14" s="3"/>
       <c r="C14" s="7" t="s">
         <v>13</v>
       </c>
